--- a/ipl/Mumbai Indians/Krunal Pandya.xlsx
+++ b/ipl/Mumbai Indians/Krunal Pandya.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,357 @@
         <v>46th Match, Sharjah, October 02, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B3" t="str">
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Punjab Kings won by 9 wickets (with 14 balls remaining)</v>
+      </c>
+      <c r="I3" t="str">
+        <v>17th Match (N), Chennai, April 23, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Capitals won by 6 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="I4" t="str">
+        <v>13th Match (N), Chennai, April 20, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B5" t="str">
+        <v>39</v>
+      </c>
+      <c r="C5" t="str">
+        <v>26</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2</v>
+      </c>
+      <c r="F5" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Mumbai won by 7 wickets (with 9 balls remaining)</v>
+      </c>
+      <c r="I5" t="str">
+        <v>24th Match (D/N), Delhi, April 29, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B6" t="str">
+        <v>3</v>
+      </c>
+      <c r="C6" t="str">
+        <v>3</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Mumbai won by 13 runs</v>
+      </c>
+      <c r="I6" t="str">
+        <v>9th Match (N), Chennai, April 17, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B7" t="str">
+        <v>13</v>
+      </c>
+      <c r="C7" t="str">
+        <v>15</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>86.66</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Capitals won by 4 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="I7" t="str">
+        <v>46th Match, Sharjah, October 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B8" t="str">
+        <v>32</v>
+      </c>
+      <c r="C8" t="str">
+        <v>23</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2</v>
+      </c>
+      <c r="F8" t="str">
+        <v>139.13</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Mumbai won by 4 wickets</v>
+      </c>
+      <c r="I8" t="str">
+        <v>27th Match (N), Delhi, May 01, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B9" t="str">
+        <v>4</v>
+      </c>
+      <c r="C9" t="str">
+        <v>5</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>80.00</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Super Kings won by 20 runs</v>
+      </c>
+      <c r="I9" t="str">
+        <v>30th Match (N), Dubai (DSC), September 19, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B10" t="str">
+        <v>12</v>
+      </c>
+      <c r="C10" t="str">
+        <v>9</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <v>133.33</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H10" t="str">
+        <v>KKR won by 7 wickets (with 29 balls remaining)</v>
+      </c>
+      <c r="I10" t="str">
+        <v>34th Match (N), Abu Dhabi, September 23, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B11" t="str">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <v>7</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>128.57</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Mumbai won by 42 runs</v>
+      </c>
+      <c r="I11" t="str">
+        <v>55th Match (N), Abu Dhabi, October 08, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B12" t="str">
+        <v>7</v>
+      </c>
+      <c r="C12" t="str">
+        <v>7</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H12" t="str">
+        <v>RCB won by 2 wickets</v>
+      </c>
+      <c r="I12" t="str">
+        <v>1st Match (N), Chennai, April 09, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B13" t="str">
+        <v>5</v>
+      </c>
+      <c r="C13" t="str">
+        <v>11</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>45.45</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H13" t="str">
+        <v>RCB won by 54 runs</v>
+      </c>
+      <c r="I13" t="str">
+        <v>39th Match (N), Dubai (DSC), September 26, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Krunal Pandya</v>
+      </c>
+      <c r="B14" t="str">
+        <v>15</v>
+      </c>
+      <c r="C14" t="str">
+        <v>9</v>
+      </c>
+      <c r="D14" t="str">
+        <v>3</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <v>166.66</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Mumbai won by 10 runs</v>
+      </c>
+      <c r="I14" t="str">
+        <v>5th Match (N), Chennai, April 13, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I14"/>
   </ignoredErrors>
 </worksheet>
 </file>